--- a/data/trans_orig/P32D_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P32D_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22003007-C13B-426D-8CE6-C7A957977EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{330D01BC-6659-481E-83A4-39BF84D1BDF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DEB6150F-AE4E-40A7-A31F-957F8CDEDEF9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1A1AFDCA-5F91-4288-924F-22CCDBFE4204}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
   <si>
     <t>Población que se dio un atracón de alcohol más de una vez al mes en el último año en 2023 (Tasa respuesta: 31,79%)</t>
   </si>
@@ -74,10 +74,10 @@
     <t>19,18%</t>
   </si>
   <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
   </si>
   <si>
     <t>6,5%</t>
@@ -86,16 +86,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>20,1%</t>
+    <t>20,27%</t>
   </si>
   <si>
     <t>14,55%</t>
   </si>
   <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,16 +104,16 @@
     <t>80,82%</t>
   </si>
   <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
   </si>
   <si>
     <t>93,5%</t>
   </si>
   <si>
-    <t>79,9%</t>
+    <t>79,73%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -122,10 +122,10 @@
     <t>85,45%</t>
   </si>
   <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>8,95%</t>
   </si>
   <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
   </si>
   <si>
     <t>6,72%</t>
   </si>
   <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
   </si>
   <si>
     <t>8,22%</t>
   </si>
   <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
   </si>
   <si>
     <t>91,05%</t>
   </si>
   <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
   </si>
   <si>
     <t>93,28%</t>
   </si>
   <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
   </si>
   <si>
     <t>91,78%</t>
   </si>
   <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -194,55 +194,55 @@
     <t>7,14%</t>
   </si>
   <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
   </si>
   <si>
     <t>11,21%</t>
   </si>
   <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
   </si>
   <si>
     <t>8,41%</t>
   </si>
   <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
   </si>
   <si>
     <t>92,86%</t>
   </si>
   <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
   </si>
   <si>
     <t>88,79%</t>
   </si>
   <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
   </si>
   <si>
     <t>91,59%</t>
   </si>
   <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -251,49 +251,55 @@
     <t>7,62%</t>
   </si>
   <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
   </si>
   <si>
     <t>1,94%</t>
   </si>
   <si>
-    <t>0,11%</t>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
   </si>
   <si>
     <t>4,95%</t>
   </si>
   <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
   </si>
   <si>
     <t>92,38%</t>
   </si>
   <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
   </si>
   <si>
     <t>98,06%</t>
   </si>
   <si>
-    <t>99,89%</t>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
   </si>
   <si>
     <t>95,05%</t>
   </si>
   <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -302,67 +308,70 @@
     <t>13,01%</t>
   </si>
   <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
   </si>
   <si>
     <t>6,53%</t>
   </si>
   <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
   </si>
   <si>
     <t>10,38%</t>
   </si>
   <si>
-    <t>13,17%</t>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
   </si>
   <si>
     <t>86,99%</t>
   </si>
   <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
   </si>
   <si>
     <t>93,47%</t>
   </si>
   <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
   </si>
   <si>
     <t>89,62%</t>
   </si>
   <si>
-    <t>86,83%</t>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
   </si>
   <si>
     <t>9,57%</t>
   </si>
   <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
   </si>
   <si>
     <t>6,22%</t>
   </si>
   <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
+    <t>8,31%</t>
   </si>
   <si>
     <t>8,29%</t>
@@ -371,31 +380,28 @@
     <t>6,92%</t>
   </si>
   <si>
-    <t>9,68%</t>
+    <t>9,69%</t>
   </si>
   <si>
     <t>90,43%</t>
   </si>
   <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
   </si>
   <si>
     <t>93,78%</t>
   </si>
   <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
+    <t>91,69%</t>
   </si>
   <si>
     <t>91,71%</t>
   </si>
   <si>
-    <t>90,32%</t>
+    <t>90,31%</t>
   </si>
   <si>
     <t>93,08%</t>
@@ -813,7 +819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECD76A1-AEAF-4768-9BB4-348CAF81926A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B72ACC8-E9A0-4A64-B9D7-F797DD0EB580}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1423,7 +1429,7 @@
         <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>31</v>
@@ -1432,13 +1438,13 @@
         <v>31244</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1453,13 +1459,13 @@
         <v>309158</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>242</v>
@@ -1468,13 +1474,13 @@
         <v>290307</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>519</v>
@@ -1483,13 +1489,13 @@
         <v>599465</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1545,7 +1551,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1557,13 +1563,13 @@
         <v>59344</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -1572,13 +1578,13 @@
         <v>20329</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>75</v>
@@ -1587,13 +1593,13 @@
         <v>79672</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1608,13 +1614,13 @@
         <v>396786</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>395</v>
@@ -1623,13 +1629,13 @@
         <v>290908</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>822</v>
@@ -1638,13 +1644,13 @@
         <v>687695</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1712,13 +1718,13 @@
         <v>153922</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>69</v>
@@ -1727,13 +1733,13 @@
         <v>61821</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>213</v>
@@ -1742,13 +1748,13 @@
         <v>215743</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1763,13 +1769,13 @@
         <v>1454962</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>1132</v>
@@ -1778,13 +1784,13 @@
         <v>931815</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="M20" s="7">
         <v>2566</v>
@@ -1793,13 +1799,13 @@
         <v>2386777</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1855,7 +1861,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P32D_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P32D_R-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{330D01BC-6659-481E-83A4-39BF84D1BDF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC04EF1C-0C1F-4259-A72F-32E824EFE537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1A1AFDCA-5F91-4288-924F-22CCDBFE4204}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9C2DE0A8-2B05-4902-A6C7-4072CC79A58B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -131,7 +131,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>8,95%</t>
@@ -188,7 +188,7 @@
     <t>94,21%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>7,14%</t>
@@ -245,7 +245,7 @@
     <t>93,66%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>7,62%</t>
@@ -819,7 +819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B72ACC8-E9A0-4A64-B9D7-F797DD0EB580}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981A3061-4F6F-4218-A012-88A5BE1367FB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P32D_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P32D_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC04EF1C-0C1F-4259-A72F-32E824EFE537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1A52AE0-AC78-40F8-A88D-CA99006D830E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9C2DE0A8-2B05-4902-A6C7-4072CC79A58B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{73E6BFDB-2C66-4BDB-BCB3-1877DAF7DC75}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="122">
   <si>
     <t>Población que se dio un atracón de alcohol más de una vez al mes en el último año en 2023 (Tasa respuesta: 31,79%)</t>
   </si>
@@ -74,10 +74,10 @@
     <t>19,18%</t>
   </si>
   <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
   </si>
   <si>
     <t>6,5%</t>
@@ -86,322 +86,316 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>20,27%</t>
+    <t>20,1%</t>
   </si>
   <si>
     <t>14,55%</t>
   </si>
   <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
     <t>7,46%</t>
   </si>
   <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
   </si>
   <si>
     <t>92,54%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
   </si>
   <si>
     <t>11,54%</t>
   </si>
   <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
   </si>
   <si>
     <t>88,46%</t>
   </si>
   <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
   </si>
   <si>
     <t>11,39%</t>
   </si>
   <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
   </si>
   <si>
     <t>88,61%</t>
   </si>
   <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
+    <t>92,02%</t>
   </si>
   <si>
     <t>93,78%</t>
   </si>
   <si>
-    <t>91,69%</t>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
   </si>
   <si>
     <t>91,71%</t>
   </si>
   <si>
-    <t>90,31%</t>
+    <t>90,32%</t>
   </si>
   <si>
     <t>93,08%</t>
@@ -819,7 +813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981A3061-4F6F-4218-A012-88A5BE1367FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E792E7A-0520-46B0-97F7-2398FE5A69AC}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1429,7 +1423,7 @@
         <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="M13" s="7">
         <v>31</v>
@@ -1438,13 +1432,13 @@
         <v>31244</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1459,13 +1453,13 @@
         <v>309158</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>242</v>
@@ -1474,13 +1468,13 @@
         <v>290307</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>519</v>
@@ -1489,13 +1483,13 @@
         <v>599465</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1551,7 +1545,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1563,13 +1557,13 @@
         <v>59344</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -1578,13 +1572,13 @@
         <v>20329</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>75</v>
@@ -1593,13 +1587,13 @@
         <v>79672</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,13 +1608,13 @@
         <v>396786</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H17" s="7">
         <v>395</v>
@@ -1629,13 +1623,13 @@
         <v>290908</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>822</v>
@@ -1644,13 +1638,13 @@
         <v>687695</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1718,13 +1712,13 @@
         <v>153922</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H19" s="7">
         <v>69</v>
@@ -1733,13 +1727,13 @@
         <v>61821</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M19" s="7">
         <v>213</v>
@@ -1748,13 +1742,13 @@
         <v>215743</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1769,13 +1763,13 @@
         <v>1454962</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H20" s="7">
         <v>1132</v>
@@ -1784,13 +1778,13 @@
         <v>931815</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>2566</v>
@@ -1799,13 +1793,13 @@
         <v>2386777</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1861,7 +1855,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P32D_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P32D_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1A52AE0-AC78-40F8-A88D-CA99006D830E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A4A7823-D429-4419-882B-9B63D8D49AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{73E6BFDB-2C66-4BDB-BCB3-1877DAF7DC75}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{10E7AAC0-88CA-483F-B768-941480E9255F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>Población que se dio un atracón de alcohol más de una vez al mes en el último año en 2023 (Tasa respuesta: 31,79%)</t>
   </si>
@@ -65,340 +65,295 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -813,8 +768,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E792E7A-0520-46B0-97F7-2398FE5A69AC}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33E3F707-B929-4B1E-9E41-AE2950EE1C96}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -931,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D4" s="7">
-        <v>8674</v>
+        <v>34148</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -946,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I4" s="7">
-        <v>1690</v>
+        <v>10811</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -961,10 +916,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="N4" s="7">
-        <v>10364</v>
+        <v>44959</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -982,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>44</v>
+        <v>321</v>
       </c>
       <c r="D5" s="7">
-        <v>36544</v>
+        <v>297961</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -997,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>39</v>
+        <v>235</v>
       </c>
       <c r="I5" s="7">
-        <v>24310</v>
+        <v>148100</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1012,10 +967,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>83</v>
+        <v>556</v>
       </c>
       <c r="N5" s="7">
-        <v>60855</v>
+        <v>446060</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1033,10 +988,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>53</v>
+        <v>355</v>
       </c>
       <c r="D6" s="7">
-        <v>45218</v>
+        <v>332109</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1048,10 +1003,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="I6" s="7">
-        <v>26000</v>
+        <v>158911</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1063,10 +1018,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>94</v>
+        <v>603</v>
       </c>
       <c r="N6" s="7">
-        <v>71219</v>
+        <v>491019</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1086,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D7" s="7">
-        <v>25845</v>
+        <v>31994</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1101,10 +1056,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="I7" s="7">
-        <v>9483</v>
+        <v>21596</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1116,10 +1071,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="N7" s="7">
-        <v>35329</v>
+        <v>53590</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1137,10 +1092,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>277</v>
+        <v>409</v>
       </c>
       <c r="D8" s="7">
-        <v>263086</v>
+        <v>441922</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1152,10 +1107,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>196</v>
+        <v>260</v>
       </c>
       <c r="I8" s="7">
-        <v>131545</v>
+        <v>180010</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1167,10 +1122,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>473</v>
+        <v>669</v>
       </c>
       <c r="N8" s="7">
-        <v>394630</v>
+        <v>621932</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1188,10 +1143,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>302</v>
+        <v>440</v>
       </c>
       <c r="D9" s="7">
-        <v>288931</v>
+        <v>473916</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1203,10 +1158,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>207</v>
+        <v>289</v>
       </c>
       <c r="I9" s="7">
-        <v>141028</v>
+        <v>201606</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1218,10 +1173,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>509</v>
+        <v>729</v>
       </c>
       <c r="N9" s="7">
-        <v>429959</v>
+        <v>675522</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1241,10 +1196,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D10" s="7">
-        <v>34557</v>
+        <v>23949</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1256,10 +1211,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>24577</v>
+        <v>4755</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1271,10 +1226,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="N10" s="7">
-        <v>59134</v>
+        <v>28704</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1292,10 +1247,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>409</v>
+        <v>277</v>
       </c>
       <c r="D11" s="7">
-        <v>449388</v>
+        <v>301786</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1307,10 +1262,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="I11" s="7">
-        <v>194744</v>
+        <v>370679</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1322,10 +1277,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>669</v>
+        <v>519</v>
       </c>
       <c r="N11" s="7">
-        <v>644132</v>
+        <v>672465</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1343,10 +1298,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>440</v>
+        <v>303</v>
       </c>
       <c r="D12" s="7">
-        <v>483945</v>
+        <v>325735</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1358,10 +1313,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>289</v>
+        <v>247</v>
       </c>
       <c r="I12" s="7">
-        <v>219321</v>
+        <v>375434</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1373,10 +1328,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>729</v>
+        <v>550</v>
       </c>
       <c r="N12" s="7">
-        <v>703266</v>
+        <v>701169</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1396,10 +1351,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="D13" s="7">
-        <v>25502</v>
+        <v>54018</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1411,10 +1366,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="I13" s="7">
-        <v>5742</v>
+        <v>17553</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1423,22 +1378,22 @@
         <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="N13" s="7">
-        <v>31244</v>
+        <v>71572</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1447,49 +1402,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>277</v>
+        <v>427</v>
       </c>
       <c r="D14" s="7">
-        <v>309158</v>
+        <v>385266</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>242</v>
+        <v>395</v>
       </c>
       <c r="I14" s="7">
-        <v>290307</v>
+        <v>270865</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>519</v>
+        <v>822</v>
       </c>
       <c r="N14" s="7">
-        <v>599465</v>
+        <v>656130</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1498,10 +1453,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>303</v>
+        <v>480</v>
       </c>
       <c r="D15" s="7">
-        <v>334660</v>
+        <v>439284</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1513,10 +1468,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>247</v>
+        <v>417</v>
       </c>
       <c r="I15" s="7">
-        <v>296049</v>
+        <v>288418</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1528,10 +1483,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>550</v>
+        <v>897</v>
       </c>
       <c r="N15" s="7">
-        <v>630709</v>
+        <v>727702</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1545,55 +1500,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="D16" s="7">
-        <v>59344</v>
+        <v>144110</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="I16" s="7">
-        <v>20329</v>
+        <v>54715</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
-        <v>75</v>
+        <v>213</v>
       </c>
       <c r="N16" s="7">
-        <v>79672</v>
+        <v>198824</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1602,49 +1557,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>427</v>
+        <v>1434</v>
       </c>
       <c r="D17" s="7">
-        <v>396786</v>
+        <v>1426934</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>395</v>
+        <v>1132</v>
       </c>
       <c r="I17" s="7">
-        <v>290908</v>
+        <v>969653</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>822</v>
+        <v>2566</v>
       </c>
       <c r="N17" s="7">
-        <v>687695</v>
+        <v>2396589</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1653,10 +1608,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>480</v>
+        <v>1578</v>
       </c>
       <c r="D18" s="7">
-        <v>456130</v>
+        <v>1571044</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1668,10 +1623,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>417</v>
+        <v>1201</v>
       </c>
       <c r="I18" s="7">
-        <v>311237</v>
+        <v>1024368</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1683,10 +1638,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>897</v>
+        <v>2779</v>
       </c>
       <c r="N18" s="7">
-        <v>767367</v>
+        <v>2595413</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1699,171 +1654,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>144</v>
-      </c>
-      <c r="D19" s="7">
-        <v>153922</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H19" s="7">
-        <v>69</v>
-      </c>
-      <c r="I19" s="7">
-        <v>61821</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="A19" t="s">
         <v>106</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="M19" s="7">
-        <v>213</v>
-      </c>
-      <c r="N19" s="7">
-        <v>215743</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1434</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1454962</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1132</v>
-      </c>
-      <c r="I20" s="7">
-        <v>931815</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2566</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2386777</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1578</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1608884</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1201</v>
-      </c>
-      <c r="I21" s="7">
-        <v>993636</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2779</v>
-      </c>
-      <c r="N21" s="7">
-        <v>2602520</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
